--- a/PCQA/ExcelDatosCuentasCompania.xlsx
+++ b/PCQA/ExcelDatosCuentasCompania.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\PC\DataSources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\PC\PCQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7F6706-30AB-4814-8FAB-3F19B87B0E59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9C11F6-7FE2-411D-9098-20AC598C9BA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,12 +64,6 @@
     <t>NumeroCalle</t>
   </si>
   <si>
-    <t>ssurgwsoadev4.opc.oracleoutsourcing.com</t>
-  </si>
-  <si>
-    <t>https://ssurgwsoadev4.opc.oracleoutsourcing.com/pc/PolicyCenter.do</t>
-  </si>
-  <si>
     <t>Usuario</t>
   </si>
   <si>
@@ -110,6 +104,12 @@
   </si>
   <si>
     <t>silverarrow</t>
+  </si>
+  <si>
+    <t>ssurgwsoadev4-oci.opc.oracleoutsourcing.com</t>
+  </si>
+  <si>
+    <t>https://ssurgwsoadev4-oci.opc.oracleoutsourcing.com/pc/PolicyCenter.do</t>
   </si>
 </sst>
 </file>
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,10 +521,10 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -556,40 +556,40 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G2">
-        <v>30701522148</v>
+        <v>30694790255</v>
       </c>
       <c r="H2">
         <v>2302</v>
       </c>
       <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
       </c>
       <c r="M2">
         <v>300</v>
@@ -597,49 +597,49 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>30694790255</v>
+        <v>30522093323</v>
       </c>
       <c r="H3">
         <v>2302</v>
       </c>
       <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" t="s">
-        <v>19</v>
-      </c>
       <c r="M3">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{2923F277-B910-4AEC-AB5F-84AC0DEE2A7C}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{57B373AC-180E-4643-BB1C-5F710C550ADB}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{57B373AC-180E-4643-BB1C-5F710C550ADB}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{7CFB52BB-523F-4E07-9D0E-DE1FFCAB8A85}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PCQA/ExcelDatosCuentasCompania.xlsx
+++ b/PCQA/ExcelDatosCuentasCompania.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\PC\PCQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9C11F6-7FE2-411D-9098-20AC598C9BA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305D6EFE-2D81-4735-BB7D-AA69533B50BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,12 +97,6 @@
     <t>Compañía</t>
   </si>
   <si>
-    <t>https://i-preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
-  </si>
-  <si>
-    <t>i-preproducciongestion.segurossura.com.ar</t>
-  </si>
-  <si>
     <t>silverarrow</t>
   </si>
   <si>
@@ -110,6 +104,12 @@
   </si>
   <si>
     <t>https://ssurgwsoadev4-oci.opc.oracleoutsourcing.com/pc/PolicyCenter.do</t>
+  </si>
+  <si>
+    <t>preproducciongestion.segurossura.com.ar</t>
+  </si>
+  <si>
+    <t>https://preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
   </si>
 </sst>
 </file>
@@ -556,10 +556,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -597,16 +597,16 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -615,7 +615,7 @@
         <v>20</v>
       </c>
       <c r="G3">
-        <v>30522093323</v>
+        <v>30633657625</v>
       </c>
       <c r="H3">
         <v>2302</v>
@@ -633,7 +633,7 @@
         <v>17</v>
       </c>
       <c r="M3">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/PCQA/ExcelDatosCuentasCompania.xlsx
+++ b/PCQA/ExcelDatosCuentasCompania.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\PC\PCQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305D6EFE-2D81-4735-BB7D-AA69533B50BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F9582B-FB8D-42D5-8A74-00B6C6243ECC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,7 +615,7 @@
         <v>20</v>
       </c>
       <c r="G3">
-        <v>30633657625</v>
+        <v>30641659270</v>
       </c>
       <c r="H3">
         <v>2302</v>
@@ -633,7 +633,7 @@
         <v>17</v>
       </c>
       <c r="M3">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/PCQA/ExcelDatosCuentasCompania.xlsx
+++ b/PCQA/ExcelDatosCuentasCompania.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\PC\PCQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F9582B-FB8D-42D5-8A74-00B6C6243ECC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BF88BE-A92F-4CD7-8474-704A5C7AC30D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -500,7 +500,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,7 +615,7 @@
         <v>20</v>
       </c>
       <c r="G3">
-        <v>30641659270</v>
+        <v>30652299071</v>
       </c>
       <c r="H3">
         <v>2302</v>
@@ -633,7 +633,7 @@
         <v>17</v>
       </c>
       <c r="M3">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/PCQA/ExcelDatosCuentasCompania.xlsx
+++ b/PCQA/ExcelDatosCuentasCompania.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\PC\PCQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BF88BE-A92F-4CD7-8474-704A5C7AC30D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34528E03-0333-43F3-909D-D24D246CF11D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,7 +615,7 @@
         <v>20</v>
       </c>
       <c r="G3">
-        <v>30652299071</v>
+        <v>30697657335</v>
       </c>
       <c r="H3">
         <v>2302</v>
@@ -633,7 +633,7 @@
         <v>17</v>
       </c>
       <c r="M3">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/PCQA/ExcelDatosCuentasCompania.xlsx
+++ b/PCQA/ExcelDatosCuentasCompania.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\PC\PCQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34528E03-0333-43F3-909D-D24D246CF11D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39974605-C480-4FD8-9036-DCFF408861EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,10 +106,10 @@
     <t>https://ssurgwsoadev4-oci.opc.oracleoutsourcing.com/pc/PolicyCenter.do</t>
   </si>
   <si>
-    <t>preproducciongestion.segurossura.com.ar</t>
-  </si>
-  <si>
-    <t>https://preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
+    <t>i-preproducciongestion.segurossura.com.ar</t>
+  </si>
+  <si>
+    <t>https://i-preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
   </si>
 </sst>
 </file>
@@ -615,7 +615,7 @@
         <v>20</v>
       </c>
       <c r="G3">
-        <v>30697657335</v>
+        <v>30629625131</v>
       </c>
       <c r="H3">
         <v>2302</v>
@@ -633,7 +633,7 @@
         <v>17</v>
       </c>
       <c r="M3">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>

--- a/PCQA/ExcelDatosCuentasCompania.xlsx
+++ b/PCQA/ExcelDatosCuentasCompania.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\PC\PCQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39974605-C480-4FD8-9036-DCFF408861EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81A150A-AC03-434D-9416-35BC219CCB7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,7 +499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
@@ -615,7 +615,7 @@
         <v>20</v>
       </c>
       <c r="G3">
-        <v>30629625131</v>
+        <v>30668697042</v>
       </c>
       <c r="H3">
         <v>2302</v>
@@ -633,7 +633,7 @@
         <v>17</v>
       </c>
       <c r="M3">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
